--- a/biology/Botanique/Brachystephanus_kupeensis/Brachystephanus_kupeensis.xlsx
+++ b/biology/Botanique/Brachystephanus_kupeensis/Brachystephanus_kupeensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystephanus kupeensis Champl. est une plante herbacée endémique du Cameroun[2], dont l'habitat naturel se trouve dans les forêts subtropicales et les forêts de plaines humides. Inconnue avant 1990, elle fut collectée au mont Koupé, auquel elle doit son épithète. C'est une espèce en danger (CR) en raison de l'expansion agricole.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystephanus kupeensis Champl. est une plante herbacée endémique du Cameroun, dont l'habitat naturel se trouve dans les forêts subtropicales et les forêts de plaines humides. Inconnue avant 1990, elle fut collectée au mont Koupé, auquel elle doit son épithète. C'est une espèce en danger (CR) en raison de l'expansion agricole.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystephanus kupeensis est une plante robuste qui peut atteindre 2 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystephanus kupeensis est une plante robuste qui peut atteindre 2 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante terrestre qui croît en forêt submontagnarde entre 900 et 1 100 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante terrestre qui croît en forêt submontagnarde entre 900 et 1 100 mètres d'altitude.
 </t>
         </is>
       </c>
